--- a/analysis/results.xlsx
+++ b/analysis/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5574f751815d9fb1/Learning/University/Masters-UvA/Information Retrieval 1/repository/IR1-1B/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Learning\University\Masters-UvA\Information Retrieval 1\repository\IR1-1B\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{A1F0D431-7E1F-4F5D-872B-87F11A19905C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1F1BFF85-0D9E-4E4E-A844-9F92C9EE90BB}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{A1F0D431-7E1F-4F5D-872B-87F11A19905C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C8E01FB9-28C5-44B6-A216-3ED7CC992143}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A04A087E-B46E-4C53-9103-E323342DD7A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Group A</t>
   </si>
@@ -92,13 +92,94 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>[0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>22 ± 11</t>
+  </si>
+  <si>
+    <t>21 ± 14</t>
+  </si>
+  <si>
+    <t>22 ± 13</t>
+  </si>
+  <si>
+    <t>20 ± 11</t>
+  </si>
+  <si>
+    <t>19 ± 13</t>
+  </si>
+  <si>
+    <t>18 ± 17</t>
+  </si>
+  <si>
+    <t>12 ± 20</t>
+  </si>
+  <si>
+    <t>17 ± 14</t>
+  </si>
+  <si>
+    <t>22 ± 20</t>
+  </si>
+  <si>
+    <t>19 ± 16</t>
+  </si>
+  <si>
+    <t>14 ± 13</t>
+  </si>
+  <si>
+    <t>15 ± 15</t>
+  </si>
+  <si>
+    <t>15 ± 23</t>
+  </si>
+  <si>
+    <t>116 ± 217</t>
+  </si>
+  <si>
+    <t>123 ± 298</t>
+  </si>
+  <si>
+    <t>3630 ± 50136</t>
+  </si>
+  <si>
+    <t>873 ± 11973</t>
+  </si>
+  <si>
+    <t>112 ± 234</t>
+  </si>
+  <si>
+    <t>54 ± 164</t>
+  </si>
+  <si>
+    <t>273 ± 1599</t>
+  </si>
+  <si>
+    <t>10 ± 5</t>
+  </si>
+  <si>
+    <t>10 ± 6</t>
+  </si>
+  <si>
+    <t>11 ± 6</t>
+  </si>
+  <si>
+    <t>10 ± 10</t>
+  </si>
+  <si>
+    <t>10 ± 13</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +195,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -181,10 +291,66 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -199,7 +365,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -214,7 +380,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -230,7 +396,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -240,21 +406,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -264,10 +415,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -279,40 +439,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -331,6 +459,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -343,7 +491,39 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -357,68 +537,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -427,9 +555,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -440,73 +566,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,324 +1005,1222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2656CA-D0AD-44F9-855D-FAABA8E2CB0C}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="12" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="21" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="15" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="15" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="22" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="17" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="M4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="R4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="C5" s="30">
+        <v>1.7472982650034501</v>
+      </c>
+      <c r="D5" s="31">
+        <v>10.031767803055301</v>
+      </c>
+      <c r="E5" s="31">
+        <v>25.332448657842299</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0.90412427717813104</v>
+      </c>
+      <c r="H5" s="31">
+        <v>57.394374055094197</v>
+      </c>
+      <c r="I5" s="31">
+        <v>2349.41649875745</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0.50759569272717697</v>
+      </c>
+      <c r="L5" s="31">
+        <v>14.126829106567399</v>
+      </c>
+      <c r="M5" s="31">
+        <v>68.793946210981204</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0.89534256243962995</v>
+      </c>
+      <c r="P5" s="31">
+        <v>21.287384372939801</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>62.808685750928099</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="34">
+        <v>0.205497061338867</v>
+      </c>
+      <c r="D6" s="35">
+        <v>9.5249839371819505</v>
+      </c>
+      <c r="E6" s="35">
+        <v>27.120087751948802</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.63408554858493904</v>
+      </c>
+      <c r="H6" s="35">
+        <v>42.281905580544297</v>
+      </c>
+      <c r="I6" s="35">
+        <v>3726.3923947538701</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.34362330545346498</v>
+      </c>
+      <c r="L6" s="35">
+        <v>12.4673624094901</v>
+      </c>
+      <c r="M6" s="35">
+        <v>94.210197301794494</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0.39628483151092297</v>
+      </c>
+      <c r="P6" s="35">
+        <v>18.6178565363196</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>80.600627634721306</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="C7" s="34">
+        <v>0.17567156148664101</v>
+      </c>
+      <c r="D7" s="35">
+        <v>10.2347784505445</v>
+      </c>
+      <c r="E7" s="35">
+        <v>33.8753878280476</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.51514101605171703</v>
+      </c>
+      <c r="H7" s="35">
+        <v>22.7209951064664</v>
+      </c>
+      <c r="I7" s="35">
+        <v>738458.27340397297</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.55085231040795701</v>
+      </c>
+      <c r="L7" s="35">
+        <v>20.193318677710899</v>
+      </c>
+      <c r="M7" s="35">
+        <v>100.76626663436799</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="P7" s="35">
+        <v>19.465435898588201</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>75.305358595078999</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="C8" s="34">
+        <v>0.19411945943202299</v>
+      </c>
+      <c r="D8" s="35">
+        <v>9.4727935074118506</v>
+      </c>
+      <c r="E8" s="35">
+        <v>30.852007166990202</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.99118486670809802</v>
+      </c>
+      <c r="H8" s="35">
+        <v>31.5408540786309</v>
+      </c>
+      <c r="I8" s="35">
+        <v>185169.99163519</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.69306918288290398</v>
+      </c>
+      <c r="L8" s="35">
+        <v>16.5704877224554</v>
+      </c>
+      <c r="M8" s="35">
+        <v>91.264967875047404</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0.84437690021011802</v>
+      </c>
+      <c r="P8" s="35">
+        <v>19.3831554660187</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>54.229522876156302</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="C9" s="34">
+        <v>0.156325419488789</v>
+      </c>
+      <c r="D9" s="35">
+        <v>9.8769725442151994</v>
+      </c>
+      <c r="E9" s="35">
+        <v>27.962609066292099</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.37485998064769799</v>
+      </c>
+      <c r="H9" s="35">
+        <v>18.882545678146801</v>
+      </c>
+      <c r="I9" s="35">
+        <v>2077.36280355396</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.76383257730880505</v>
+      </c>
+      <c r="L9" s="35">
+        <v>12.397892503396401</v>
+      </c>
+      <c r="M9" s="35">
+        <v>78.356179982285397</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="37">
+        <v>0.86104385346522105</v>
+      </c>
+      <c r="P9" s="35">
+        <v>17.283337203240499</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>51.317347789466197</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="C10" s="34">
+        <v>0.15084115993868399</v>
+      </c>
+      <c r="D10" s="35">
+        <v>6.8120027023810401</v>
+      </c>
+      <c r="E10" s="35">
+        <v>37.834224541205103</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.20675168423234999</v>
+      </c>
+      <c r="H10" s="35">
+        <v>6.5682304883312304</v>
+      </c>
+      <c r="I10" s="35">
+        <v>1759.77910646086</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="L10" s="35">
+        <v>9.9861622969419006</v>
+      </c>
+      <c r="M10" s="35">
+        <v>67.006457907121899</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="37">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="P10" s="35">
+        <v>19.012242462646501</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>76.561916652151396</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="C11" s="34">
+        <v>0.120446574209484</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="E11" s="35">
+        <v>49.504687482112502</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.20346110267502299</v>
+      </c>
+      <c r="H11" s="35">
+        <v>2.20310102434857</v>
+      </c>
+      <c r="I11" s="35">
+        <v>19078.665468156902</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="L11" s="35">
+        <v>1.5163297695756599</v>
+      </c>
+      <c r="M11" s="35">
+        <v>101.75337089113999</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0.67638586352385299</v>
+      </c>
+      <c r="P11" s="35">
+        <v>1.32060171852455</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>85.887605176996303</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="C12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A33"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B15:X30"/>
+    <mergeCell ref="S2:Y14"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
